--- a/100runs/run093/NotionalETEOutput093.xlsx
+++ b/100runs/run093/NotionalETEOutput093.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,25 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_13.MISSILE_BRAVER_13</t>
+    <t>MISSILE_HELLMASKER_52.MISSILE_HELLMASKER_52</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_150.MISSILE_SOMERSAULT_150</t>
+    <t>MISSILE_HIGHWIND_252.MISSILE_HIGHWIND_252</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_223.MISSILE_SOMERSAULT_223</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,28 +474,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>286.4307068521897</v>
+        <v>1116578.043751723</v>
       </c>
       <c r="G2">
-        <v>-57.40944055914184</v>
+        <v>4841121.044671115</v>
       </c>
       <c r="H2">
-        <v>643.5845280006059</v>
+        <v>3985230.071819728</v>
       </c>
       <c r="I2">
-        <v>-1427.804748434257</v>
+        <v>1114862.859980927</v>
       </c>
       <c r="J2">
-        <v>1600.14700224887</v>
+        <v>4843210.89738116</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984374.809131836</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,28 +509,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>286.4307068521897</v>
+        <v>1116578.043751723</v>
       </c>
       <c r="G3">
-        <v>-57.40944055914184</v>
+        <v>4841121.044671115</v>
       </c>
       <c r="H3">
-        <v>643.5845280006059</v>
+        <v>3985230.071819728</v>
       </c>
       <c r="I3">
-        <v>-1399.61608083118</v>
+        <v>1114892.474017303</v>
       </c>
       <c r="J3">
-        <v>1561.222155714194</v>
+        <v>4843162.245917259</v>
       </c>
       <c r="K3">
-        <v>334.7843638913005</v>
+        <v>3984678.605466005</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,28 +544,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>286.4307068521897</v>
+        <v>1116578.043751723</v>
       </c>
       <c r="G4">
-        <v>-57.40944055914184</v>
+        <v>4841121.044671115</v>
       </c>
       <c r="H4">
-        <v>643.5845280006059</v>
+        <v>3985230.071819728</v>
       </c>
       <c r="I4">
-        <v>-1370.733293221477</v>
+        <v>1114922.81727208</v>
       </c>
       <c r="J4">
-        <v>1522.297309179518</v>
+        <v>4843113.594453355</v>
       </c>
       <c r="K4">
-        <v>652.8748448025484</v>
+        <v>3984967.253122401</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,28 +579,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>286.4307068521897</v>
+        <v>1116578.043751723</v>
       </c>
       <c r="G5">
-        <v>-57.40944055914184</v>
+        <v>4841121.044671115</v>
       </c>
       <c r="H5">
-        <v>643.5845280006059</v>
+        <v>3985230.071819728</v>
       </c>
       <c r="I5">
-        <v>-1341.139293538562</v>
+        <v>1114953.907701591</v>
       </c>
       <c r="J5">
-        <v>1483.372462644842</v>
+        <v>4843064.942989454</v>
       </c>
       <c r="K5">
-        <v>954.2714427337461</v>
+        <v>3985240.752101022</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,28 +614,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>286.4307068521897</v>
+        <v>1116578.043751723</v>
       </c>
       <c r="G6">
-        <v>-57.40944055914184</v>
+        <v>4841121.044671115</v>
       </c>
       <c r="H6">
-        <v>643.5845280006059</v>
+        <v>3985230.071819728</v>
       </c>
       <c r="I6">
-        <v>-1310.816568839435</v>
+        <v>1114985.763704326</v>
       </c>
       <c r="J6">
-        <v>1444.447616110166</v>
+        <v>4843016.291525551</v>
       </c>
       <c r="K6">
-        <v>1238.974157684892</v>
+        <v>3985499.102401869</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,28 +649,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>286.4307068521897</v>
+        <v>1116578.043751723</v>
       </c>
       <c r="G7">
-        <v>-57.40944055914184</v>
+        <v>4841121.044671115</v>
       </c>
       <c r="H7">
-        <v>643.5845280006059</v>
+        <v>3985230.071819728</v>
       </c>
       <c r="I7">
-        <v>-1279.747174940987</v>
+        <v>1115018.404131822</v>
       </c>
       <c r="J7">
-        <v>1405.522769575489</v>
+        <v>4842967.640061649</v>
       </c>
       <c r="K7">
-        <v>1506.982989655987</v>
+        <v>3985742.304024943</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,28 +684,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>286.4307068521897</v>
+        <v>1116578.043751723</v>
       </c>
       <c r="G8">
-        <v>-57.40944055914184</v>
+        <v>4841121.044671115</v>
       </c>
       <c r="H8">
-        <v>643.5845280006059</v>
+        <v>3985230.071819728</v>
       </c>
       <c r="I8">
-        <v>-1247.912725801109</v>
+        <v>1115051.848299816</v>
       </c>
       <c r="J8">
-        <v>1366.597923040813</v>
+        <v>4842918.988597746</v>
       </c>
       <c r="K8">
-        <v>1758.297938647032</v>
+        <v>3985970.356970241</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -722,28 +719,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>286.4307068521897</v>
+        <v>1116578.043751723</v>
       </c>
       <c r="G9">
-        <v>-57.40944055914184</v>
+        <v>4841121.044671115</v>
       </c>
       <c r="H9">
-        <v>643.5845280006059</v>
+        <v>3985230.071819728</v>
       </c>
       <c r="I9">
-        <v>-1215.294382638317</v>
+        <v>1115086.115999678</v>
       </c>
       <c r="J9">
-        <v>1327.673076506137</v>
+        <v>4842870.337133843</v>
       </c>
       <c r="K9">
-        <v>1992.919004658025</v>
+        <v>3986183.261237767</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,28 +754,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>286.4307068521897</v>
+        <v>1116578.043751723</v>
       </c>
       <c r="G10">
-        <v>-47.92952595338957</v>
+        <v>4841137.557478324</v>
       </c>
       <c r="H10">
-        <v>643.5845280006059</v>
+        <v>3985230.071819728</v>
       </c>
       <c r="I10">
-        <v>-1181.872842783467</v>
+        <v>1115121.227510124</v>
       </c>
       <c r="J10">
-        <v>1288.748229971461</v>
+        <v>4842821.685669942</v>
       </c>
       <c r="K10">
-        <v>2210.846187688966</v>
+        <v>3986381.016827517</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>222.3036425092105</v>
+        <v>1116529.363208012</v>
       </c>
       <c r="G11">
-        <v>-38.4496113476373</v>
+        <v>4841154.070285532</v>
       </c>
       <c r="H11">
-        <v>792.8918077805354</v>
+        <v>3985429.326313673</v>
       </c>
       <c r="I11">
-        <v>-1147.628328256944</v>
+        <v>1115157.203609213</v>
       </c>
       <c r="J11">
-        <v>1249.823383436785</v>
+        <v>4842773.034206039</v>
       </c>
       <c r="K11">
-        <v>2412.079487739855</v>
+        <v>3986563.623739494</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,28 +824,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>184.6322091685228</v>
+        <v>1116500.765830662</v>
       </c>
       <c r="G12">
-        <v>-28.96969674188503</v>
+        <v>4841170.583092741</v>
       </c>
       <c r="H12">
-        <v>881.8268594816385</v>
+        <v>3985548.012480528</v>
       </c>
       <c r="I12">
-        <v>-1112.540574064581</v>
+        <v>1115194.065586645</v>
       </c>
       <c r="J12">
-        <v>1210.898536902109</v>
+        <v>4842724.382742136</v>
       </c>
       <c r="K12">
-        <v>2596.618904810694</v>
+        <v>3986731.081973697</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -862,28 +859,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>160.8512367276999</v>
+        <v>1116482.713068069</v>
       </c>
       <c r="G13">
-        <v>-19.48978213613276</v>
+        <v>4841187.09589995</v>
       </c>
       <c r="H13">
-        <v>945.3827300420643</v>
+        <v>3985632.829462288</v>
       </c>
       <c r="I13">
-        <v>-1076.588816205373</v>
+        <v>1115231.835256358</v>
       </c>
       <c r="J13">
-        <v>1171.973690367433</v>
+        <v>4842675.731278234</v>
       </c>
       <c r="K13">
-        <v>2764.464438901482</v>
+        <v>3986883.391530125</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -897,28 +894,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>144.2664830801044</v>
+        <v>1116470.123144717</v>
       </c>
       <c r="G14">
-        <v>-10.00986753038049</v>
+        <v>4841203.608707158</v>
       </c>
       <c r="H14">
-        <v>994.8736523973854</v>
+        <v>3985698.876400544</v>
       </c>
       <c r="I14">
-        <v>-1039.751779383893</v>
+        <v>1115270.534969441</v>
       </c>
       <c r="J14">
-        <v>1133.048843832756</v>
+        <v>4842627.079814332</v>
       </c>
       <c r="K14">
-        <v>2915.61609001222</v>
+        <v>3987020.55240878</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -932,28 +929,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>131.8937602022935</v>
+        <v>1116460.730684871</v>
       </c>
       <c r="G15">
-        <v>-0.5299529246282247</v>
+        <v>4841220.121514367</v>
       </c>
       <c r="H15">
-        <v>1035.41055667225</v>
+        <v>3985752.973966043</v>
       </c>
       <c r="I15">
-        <v>-1002.007664420136</v>
+        <v>1115310.187627355</v>
       </c>
       <c r="J15">
-        <v>1094.12399729808</v>
+        <v>4842578.42835043</v>
       </c>
       <c r="K15">
-        <v>3050.073858142905</v>
+        <v>3987142.56460966</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -967,28 +964,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>122.2200187113715</v>
+        <v>1116453.38709289</v>
       </c>
       <c r="G16">
-        <v>8.949961681124048</v>
+        <v>4841236.634321575</v>
       </c>
       <c r="H16">
-        <v>1069.742355542467</v>
+        <v>3985798.79065509</v>
       </c>
       <c r="I16">
-        <v>-963.3341353493463</v>
+        <v>1115350.816695491</v>
       </c>
       <c r="J16">
-        <v>1055.199150763404</v>
+        <v>4842529.776886526</v>
       </c>
       <c r="K16">
-        <v>3167.837743293539</v>
+        <v>3987249.428132766</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1002,28 +999,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>114.3932574770015</v>
+        <v>1116447.445592273</v>
       </c>
       <c r="G17">
-        <v>18.42987628687632</v>
+        <v>4841253.147128784</v>
       </c>
       <c r="H17">
-        <v>1099.518938309961</v>
+        <v>3985838.528288375</v>
       </c>
       <c r="I17">
-        <v>-923.7083062041822</v>
+        <v>1115392.446217051</v>
       </c>
       <c r="J17">
-        <v>1016.274304228728</v>
+        <v>4842481.125422624</v>
       </c>
       <c r="K17">
-        <v>3268.907745464121</v>
+        <v>3987341.142978098</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1037,28 +1034,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>107.894256821213</v>
+        <v>1116442.512029685</v>
       </c>
       <c r="G18">
-        <v>27.90979089262859</v>
+        <v>4841269.659935993</v>
       </c>
       <c r="H18">
-        <v>1125.808714390667</v>
+        <v>3985873.61268638</v>
       </c>
       <c r="I18">
-        <v>-883.1067274714131</v>
+        <v>1115435.100827281</v>
       </c>
       <c r="J18">
-        <v>977.349457694052</v>
+        <v>4842432.473958722</v>
       </c>
       <c r="K18">
-        <v>3353.283864654654</v>
+        <v>3987417.709145656</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1072,28 +1069,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>102.3868427544744</v>
+        <v>1116438.331206596</v>
       </c>
       <c r="G19">
-        <v>37.38970549838086</v>
+        <v>4841286.1727432</v>
       </c>
       <c r="H19">
-        <v>1149.343354245061</v>
+        <v>3985905.020282589</v>
       </c>
       <c r="I19">
-        <v>-841.5053722151167</v>
+        <v>1115478.805768047</v>
       </c>
       <c r="J19">
-        <v>938.4246111593758</v>
+        <v>4842383.82249482</v>
       </c>
       <c r="K19">
-        <v>3420.966100865135</v>
+        <v>3987479.12663544</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1107,28 +1104,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>97.64274284131281</v>
+        <v>1116434.729835388</v>
       </c>
       <c r="G20">
-        <v>46.86962010413313</v>
+        <v>4841302.685550409</v>
       </c>
       <c r="H20">
-        <v>1170.645941144062</v>
+        <v>3985933.449145392</v>
       </c>
       <c r="I20">
-        <v>-798.8796218581791</v>
+        <v>1115523.586902771</v>
       </c>
       <c r="J20">
-        <v>899.4997646246999</v>
+        <v>4842335.171030917</v>
       </c>
       <c r="K20">
-        <v>3471.954454095564</v>
+        <v>3987525.39544745</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1142,28 +1139,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>93.50089848125209</v>
+        <v>1116431.585652234</v>
       </c>
       <c r="G21">
-        <v>56.3495347098854</v>
+        <v>4841319.198357618</v>
       </c>
       <c r="H21">
-        <v>1190.103421901146</v>
+        <v>3985959.415665493</v>
       </c>
       <c r="I21">
-        <v>-755.2042516136734</v>
+        <v>1115569.47073174</v>
       </c>
       <c r="J21">
-        <v>860.5749180900236</v>
+        <v>4842286.519567015</v>
       </c>
       <c r="K21">
-        <v>3506.248924345942</v>
+        <v>3987556.515581686</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1177,28 +1174,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>89.84404137611679</v>
+        <v>1116428.809635681</v>
       </c>
       <c r="G22">
-        <v>65.82944931563767</v>
+        <v>4841335.711164827</v>
       </c>
       <c r="H22">
-        <v>1208.010099397047</v>
+        <v>3985983.312597832</v>
       </c>
       <c r="I22">
-        <v>-710.4534155575003</v>
+        <v>1115616.484407785</v>
       </c>
       <c r="J22">
-        <v>821.6500715553476</v>
+        <v>4842237.868103112</v>
       </c>
       <c r="K22">
-        <v>3523.849511616269</v>
+        <v>3987572.487038148</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1212,28 +1209,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>86.5845130449824</v>
+        <v>1116426.335241866</v>
       </c>
       <c r="G23">
-        <v>75.30936392138995</v>
+        <v>4841352.223972036</v>
       </c>
       <c r="H23">
-        <v>1224.595033883097</v>
+        <v>3986005.445629343</v>
       </c>
       <c r="I23">
-        <v>-664.6006313334582</v>
+        <v>1115664.655752351</v>
       </c>
       <c r="J23">
-        <v>782.7252250206715</v>
+        <v>4842189.21663921</v>
       </c>
       <c r="K23">
-        <v>3524.756215906545</v>
+        <v>3987573.309816835</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1247,28 +1244,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>83.65531206541057</v>
+        <v>1116424.111608244</v>
       </c>
       <c r="G24">
-        <v>84.78927852714222</v>
+        <v>4841368.736779245</v>
       </c>
       <c r="H24">
-        <v>1240.040007497621</v>
+        <v>3986026.057353072</v>
       </c>
       <c r="I24">
-        <v>-617.6187644816872</v>
+        <v>1115714.013271959</v>
       </c>
       <c r="J24">
-        <v>743.8003784859952</v>
+        <v>4842140.565175307</v>
       </c>
       <c r="K24">
-        <v>3508.969037216769</v>
+        <v>3987558.983917749</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1282,28 +1279,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>81.00423744482464</v>
+        <v>1116422.099107668</v>
       </c>
       <c r="G25">
-        <v>94.26919313289449</v>
+        <v>4841385.249586453</v>
       </c>
       <c r="H25">
-        <v>1254.49170187209</v>
+        <v>3986045.343519517</v>
       </c>
       <c r="I25">
-        <v>-569.4800123812159</v>
+        <v>1115764.586175081</v>
       </c>
       <c r="J25">
-        <v>704.8755319513192</v>
+        <v>4842091.913711405</v>
       </c>
       <c r="K25">
-        <v>3476.487975546943</v>
+        <v>3987529.509340888</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1317,28 +1314,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>78.58993899017142</v>
+        <v>1116420.266350116</v>
       </c>
       <c r="G26">
-        <v>103.7491077386468</v>
+        <v>4841401.762393662</v>
       </c>
       <c r="H26">
-        <v>1268.070191030371</v>
+        <v>3986063.464370621</v>
       </c>
       <c r="I26">
-        <v>-520.1558877971106</v>
+        <v>1115816.404389415</v>
       </c>
       <c r="J26">
-        <v>665.9506854166431</v>
+        <v>4842043.262247503</v>
       </c>
       <c r="K26">
-        <v>3427.313030897065</v>
+        <v>3987484.886086253</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1352,28 +1349,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>76.37918256878129</v>
+        <v>1116418.588106683</v>
       </c>
       <c r="G27">
-        <v>113.229022344399</v>
+        <v>4841418.27520087</v>
       </c>
       <c r="H27">
-        <v>1280.875011479985</v>
+        <v>3986080.552740475</v>
       </c>
       <c r="I27">
-        <v>-469.6172020224844</v>
+        <v>1115869.498579605</v>
       </c>
       <c r="J27">
-        <v>627.0258388819668</v>
+        <v>4841994.610783599</v>
       </c>
       <c r="K27">
-        <v>3361.444203267136</v>
+        <v>3987425.114153845</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1387,28 +1384,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>74.34491239323921</v>
+        <v>1116417.043838608</v>
       </c>
       <c r="G28">
-        <v>122.7089369501513</v>
+        <v>4841434.788008079</v>
       </c>
       <c r="H28">
-        <v>1292.989594315645</v>
+        <v>3986096.719970069</v>
       </c>
       <c r="I28">
-        <v>-417.8340476053966</v>
+        <v>1115923.900165383</v>
       </c>
       <c r="J28">
-        <v>588.1009923472909</v>
+        <v>4841945.959319698</v>
       </c>
       <c r="K28">
-        <v>3278.881492657156</v>
+        <v>3987350.193543662</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1422,28 +1419,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>72.46484983434635</v>
+        <v>1116415.616633597</v>
       </c>
       <c r="G29">
-        <v>132.1888515559036</v>
+        <v>4841451.300815287</v>
       </c>
       <c r="H29">
-        <v>1304.484562689101</v>
+        <v>3986112.060307858</v>
       </c>
       <c r="I29">
-        <v>-364.7757806504159</v>
+        <v>1115979.641340162</v>
       </c>
       <c r="J29">
-        <v>549.1761458126147</v>
+        <v>4841897.307855795</v>
       </c>
       <c r="K29">
-        <v>3179.624899067125</v>
+        <v>3987260.124255706</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1457,28 +1454,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>70.72046173038119</v>
+        <v>1116414.292422639</v>
       </c>
       <c r="G30">
-        <v>141.6687661616558</v>
+        <v>4841467.813622495</v>
       </c>
       <c r="H30">
-        <v>1315.420226297074</v>
+        <v>3986126.654238719</v>
       </c>
       <c r="I30">
-        <v>-310.4110026843796</v>
+        <v>1116036.75509009</v>
       </c>
       <c r="J30">
-        <v>510.2512992779385</v>
+        <v>4841848.656391893</v>
       </c>
       <c r="K30">
-        <v>3063.674422497042</v>
+        <v>3987154.906289975</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1492,28 +1489,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>69.09618838014748</v>
+        <v>1116413.059393954</v>
       </c>
       <c r="G31">
-        <v>151.1486807674081</v>
+        <v>4841484.326429704</v>
       </c>
       <c r="H31">
-        <v>1325.848496675381</v>
+        <v>3986140.571039963</v>
       </c>
       <c r="I31">
-        <v>-254.7075420756083</v>
+        <v>1116095.275213565</v>
       </c>
       <c r="J31">
-        <v>471.3264527432625</v>
+        <v>4841800.00492799</v>
       </c>
       <c r="K31">
-        <v>2931.030062946909</v>
+        <v>3987034.53964647</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1527,28 +1524,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>67.57885739550292</v>
+        <v>1116411.907548035</v>
       </c>
       <c r="G32">
-        <v>160.6285953731604</v>
+        <v>4841500.839236913</v>
       </c>
       <c r="H32">
-        <v>1335.814377542136</v>
+        <v>3986153.870770236</v>
       </c>
       <c r="I32">
-        <v>-197.6324349955902</v>
+        <v>1116155.236341244</v>
       </c>
       <c r="J32">
-        <v>432.4016062085863</v>
+        <v>4841751.353464087</v>
       </c>
       <c r="K32">
-        <v>2781.691820416723</v>
+        <v>3986899.02432519</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1562,28 +1559,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>66.15723277745504</v>
+        <v>1116410.828355341</v>
       </c>
       <c r="G33">
-        <v>170.1085099789126</v>
+        <v>4841517.352044121</v>
       </c>
       <c r="H33">
-        <v>1345.357138540795</v>
+        <v>3986166.60583591</v>
       </c>
       <c r="I33">
-        <v>-139.1519059118621</v>
+        <v>1116216.673956529</v>
       </c>
       <c r="J33">
-        <v>393.4767596739103</v>
+        <v>4841702.702000186</v>
       </c>
       <c r="K33">
-        <v>2615.659694906487</v>
+        <v>3986748.360326137</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1597,28 +1594,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>64.82166384955575</v>
+        <v>1116409.814489787</v>
       </c>
       <c r="G34">
-        <v>179.5884245846649</v>
+        <v>4841533.86485133</v>
       </c>
       <c r="H34">
-        <v>1354.511249812555</v>
+        <v>3986178.822238296</v>
       </c>
       <c r="I34">
-        <v>-79.23134760054724</v>
+        <v>1116279.624416568</v>
       </c>
       <c r="J34">
-        <v>354.5519131392341</v>
+        <v>4841654.050536283</v>
       </c>
       <c r="K34">
-        <v>2432.9336864162</v>
+        <v>3986582.54764931</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1632,28 +1629,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>63.56380893745365</v>
+        <v>1116408.85961899</v>
       </c>
       <c r="G35">
-        <v>189.0683391904172</v>
+        <v>4841550.377658539</v>
       </c>
       <c r="H35">
-        <v>1363.307133597458</v>
+        <v>3986190.560576674</v>
       </c>
       <c r="I35">
-        <v>-17.83530066671939</v>
+        <v>1116344.124973772</v>
       </c>
       <c r="J35">
-        <v>315.6270666045579</v>
+        <v>4841605.39907238</v>
       </c>
       <c r="K35">
-        <v>2233.513794945861</v>
+        <v>3986401.586294708</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1667,28 +1664,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>62.3764156952735</v>
+        <v>1116407.958237503</v>
       </c>
       <c r="G36">
-        <v>198.5482537961695</v>
+        <v>4841566.890465748</v>
       </c>
       <c r="H36">
-        <v>1371.771774236021</v>
+        <v>3986201.856862356</v>
       </c>
       <c r="I36">
-        <v>45.07256743952667</v>
+        <v>1116410.213797858</v>
       </c>
       <c r="J36">
-        <v>276.7022200698819</v>
+        <v>4841556.747608478</v>
       </c>
       <c r="K36">
-        <v>2017.400020495472</v>
+        <v>3986205.476262332</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1702,28 +1699,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>61.25314485286104</v>
+        <v>1116407.105533019</v>
       </c>
       <c r="G37">
-        <v>208.0281684019217</v>
+        <v>4841583.403272957</v>
       </c>
       <c r="H37">
-        <v>1379.929217424677</v>
+        <v>3986212.743184958</v>
       </c>
       <c r="I37">
-        <v>109.5294839237115</v>
+        <v>1116477.929998437</v>
       </c>
       <c r="J37">
-        <v>237.7773735352057</v>
+        <v>4841508.096144576</v>
       </c>
       <c r="K37">
-        <v>1784.592363065031</v>
+        <v>3985994.217552183</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1737,28 +1734,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>60.18842759621011</v>
+        <v>1116406.297278103</v>
       </c>
       <c r="G38">
-        <v>217.508083007674</v>
+        <v>4841599.916080165</v>
       </c>
       <c r="H38">
-        <v>1387.80098200929</v>
+        <v>3986223.248261944</v>
       </c>
       <c r="I38">
-        <v>175.5735926770441</v>
+        <v>1116547.313648157</v>
       </c>
       <c r="J38">
-        <v>198.8525270005297</v>
+        <v>4841459.444680674</v>
       </c>
       <c r="K38">
-        <v>1535.090822654539</v>
+        <v>3985767.810164259</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1772,28 +1769,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>59.1773492529466</v>
+        <v>1116405.5297419</v>
       </c>
       <c r="G39">
-        <v>226.9879976134263</v>
+        <v>4841616.428887374</v>
       </c>
       <c r="H39">
-        <v>1395.406402082416</v>
+        <v>3986233.397895171</v>
       </c>
       <c r="I39">
-        <v>243.2439768489609</v>
+        <v>1116618.40580642</v>
       </c>
       <c r="J39">
-        <v>159.9276804658535</v>
+        <v>4841410.793216771</v>
       </c>
       <c r="K39">
-        <v>1268.895399263995</v>
+        <v>3985526.254098561</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1807,28 +1804,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>58.21555373674932</v>
+        <v>1116404.799617589</v>
       </c>
       <c r="G40">
-        <v>236.4679122191785</v>
+        <v>4841632.941694582</v>
       </c>
       <c r="H40">
-        <v>1402.762913077432</v>
+        <v>3986243.215352684</v>
       </c>
       <c r="I40">
-        <v>312.5806819754999</v>
+        <v>1116691.248543676</v>
       </c>
       <c r="J40">
-        <v>121.0028339311773</v>
+        <v>4841362.141752868</v>
       </c>
       <c r="K40">
-        <v>986.0060928934004</v>
+        <v>3985269.54935509</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1842,28 +1839,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>57.29916451104303</v>
+        <v>1116404.10396239</v>
       </c>
       <c r="G41">
-        <v>245.9478268249308</v>
+        <v>4841649.45450179</v>
       </c>
       <c r="H41">
-        <v>1409.886292513225</v>
+        <v>3986252.721689995</v>
       </c>
       <c r="I41">
-        <v>383.6247396771798</v>
+        <v>1116765.884966323</v>
       </c>
       <c r="J41">
-        <v>82.0779873965013</v>
+        <v>4841313.490288966</v>
       </c>
       <c r="K41">
-        <v>686.4229035427551</v>
+        <v>3984997.695933843</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1877,28 +1874,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>56.42471880069246</v>
+        <v>1116403.440147617</v>
       </c>
       <c r="G42">
-        <v>255.4277414306831</v>
+        <v>4841665.967308999</v>
       </c>
       <c r="H42">
-        <v>1416.790863751179</v>
+        <v>3986261.936022009</v>
       </c>
       <c r="I42">
-        <v>456.4181919404305</v>
+        <v>1116842.359242214</v>
       </c>
       <c r="J42">
-        <v>43.15314086182511</v>
+        <v>4841264.838825064</v>
       </c>
       <c r="K42">
-        <v>370.1458312120577</v>
+        <v>3984710.693834823</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1912,28 +1909,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>55.5891125055975</v>
+        <v>1116402.805816868</v>
       </c>
       <c r="G43">
-        <v>264.9076560364354</v>
+        <v>4841682.480116208</v>
       </c>
       <c r="H43">
-        <v>1423.489669380942</v>
+        <v>3986270.875754403</v>
       </c>
       <c r="I43">
-        <v>531.0041159969149</v>
+        <v>1116920.716626793</v>
       </c>
       <c r="J43">
-        <v>4.228294327148928</v>
+        <v>4841216.187361161</v>
       </c>
       <c r="K43">
-        <v>37.17487590130929</v>
+        <v>3984408.543058029</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1947,28 +1944,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>54.7895538183541</v>
+        <v>1116402.198850807</v>
       </c>
       <c r="G44">
-        <v>274.3875706421876</v>
+        <v>4841698.992923416</v>
       </c>
       <c r="H44">
-        <v>1429.994619510497</v>
+        <v>3986279.556781531</v>
       </c>
       <c r="I44">
-        <v>607.4266498154977</v>
+        <v>1117001.00348988</v>
       </c>
       <c r="J44">
-        <v>-34.69655220752708</v>
+        <v>4841167.535897259</v>
       </c>
       <c r="K44">
-        <v>-312.4899623894893</v>
+        <v>3984091.24360346</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1982,28 +1979,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>54.0235239663695</v>
+        <v>1116401.617337369</v>
       </c>
       <c r="G45">
-        <v>283.8674852479399</v>
+        <v>4841715.505730625</v>
       </c>
       <c r="H45">
-        <v>1436.316619196986</v>
+        <v>3986287.993656479</v>
       </c>
       <c r="I45">
-        <v>685.7310182219217</v>
+        <v>1117083.267343109</v>
       </c>
       <c r="J45">
-        <v>-73.62139874220327</v>
+        <v>4841118.884433356</v>
       </c>
       <c r="K45">
-        <v>-678.8486836603402</v>
+        <v>3983758.795471119</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2017,28 +2014,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>53.28874382053312</v>
+        <v>1116401.059546405</v>
       </c>
       <c r="G46">
-        <v>293.3473998536922</v>
+        <v>4841732.018537833</v>
       </c>
       <c r="H46">
-        <v>1442.465678443152</v>
+        <v>3986296.199737858</v>
       </c>
       <c r="I46">
-        <v>765.9635596616563</v>
+        <v>1117167.556868041</v>
       </c>
       <c r="J46">
-        <v>-112.5462452768795</v>
+        <v>4841070.232969454</v>
       </c>
       <c r="K46">
-        <v>-1061.901287911243</v>
+        <v>3983411.198661002</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2052,28 +2049,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>52.58314536198453</v>
+        <v>1116400.523908029</v>
       </c>
       <c r="G47">
-        <v>302.8273144594444</v>
+        <v>4841748.531345042</v>
       </c>
       <c r="H47">
-        <v>1448.451007545669</v>
+        <v>3986304.187317051</v>
       </c>
       <c r="I47">
-        <v>848.1717536217596</v>
+        <v>1117253.92194498</v>
       </c>
       <c r="J47">
-        <v>-151.4710918115557</v>
+        <v>4841021.581505551</v>
       </c>
       <c r="K47">
-        <v>-1461.647775142196</v>
+        <v>3983048.453173112</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2087,28 +2084,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>51.90484719334819</v>
+        <v>1116400.008994022</v>
       </c>
       <c r="G48">
-        <v>312.3072290651967</v>
+        <v>4841765.044152251</v>
       </c>
       <c r="H48">
-        <v>1454.281100075553</v>
+        <v>3986311.967728954</v>
       </c>
       <c r="I48">
-        <v>932.4042487279784</v>
+        <v>1117342.413682485</v>
       </c>
       <c r="J48">
-        <v>-190.3959383462315</v>
+        <v>4840972.930041649</v>
       </c>
       <c r="K48">
-        <v>-1878.088145353198</v>
+        <v>3982670.559007447</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2122,28 +2119,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>51.25213343405949</v>
+        <v>1116399.513501815</v>
       </c>
       <c r="G49">
-        <v>321.787143670949</v>
+        <v>4841781.55695946</v>
       </c>
       <c r="H49">
-        <v>1459.963805367227</v>
+        <v>3986319.551448708</v>
       </c>
       <c r="I49">
-        <v>1018.710891533714</v>
+        <v>1117433.084447614</v>
       </c>
       <c r="J49">
-        <v>-229.3207848809077</v>
+        <v>4840924.278577747</v>
       </c>
       <c r="K49">
-        <v>-2311.222398544254</v>
+        <v>3982277.516164009</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2157,28 +2154,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>50.62343546074895</v>
+        <v>1116399.036240622</v>
       </c>
       <c r="G50">
-        <v>331.2670582767012</v>
+        <v>4841798.069766668</v>
       </c>
       <c r="H50">
-        <v>1465.506392068776</v>
+        <v>3986326.948176517</v>
       </c>
       <c r="I50">
-        <v>1107.142756017885</v>
+        <v>1117525.987896919</v>
       </c>
       <c r="J50">
-        <v>-268.2456314155838</v>
+        <v>4840875.627113843</v>
       </c>
       <c r="K50">
-        <v>-2761.050534715361</v>
+        <v>3981869.324642795</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2192,28 +2189,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>50.0173160503341</v>
+        <v>1116398.576119412</v>
       </c>
       <c r="G51">
-        <v>340.7469728824535</v>
+        <v>4841814.582573877</v>
       </c>
       <c r="H51">
-        <v>1470.915604044341</v>
+        <v>3986334.166912243</v>
       </c>
       <c r="I51">
-        <v>1197.752173809155</v>
+        <v>1117621.179008194</v>
       </c>
       <c r="J51">
-        <v>-307.17047795026</v>
+        <v>4840826.975649942</v>
       </c>
       <c r="K51">
-        <v>-3227.57255386652</v>
+        <v>3981445.984443808</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2227,28 +2224,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>49.43245556096294</v>
+        <v>1116398.132136409</v>
       </c>
       <c r="G52">
-        <v>350.2268874882058</v>
+        <v>4841831.095381085</v>
       </c>
       <c r="H52">
-        <v>1476.197709707194</v>
+        <v>3986341.216021251</v>
       </c>
       <c r="I52">
-        <v>1290.5927651544</v>
+        <v>1117718.714113009</v>
       </c>
       <c r="J52">
-        <v>-346.0953244849362</v>
+        <v>4840778.324186039</v>
       </c>
       <c r="K52">
-        <v>-3710.788455997729</v>
+        <v>3981007.495567048</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2262,28 +2259,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>48.86763984840763</v>
+        <v>1116397.703369924</v>
       </c>
       <c r="G53">
-        <v>359.7068020939581</v>
+        <v>4841847.608188294</v>
       </c>
       <c r="H53">
-        <v>1481.358545688636</v>
+        <v>3986348.103292678</v>
       </c>
       <c r="I53">
-        <v>1385.719470649742</v>
+        <v>1117818.65093005</v>
       </c>
       <c r="J53">
-        <v>-385.0201710196121</v>
+        <v>4840729.672722138</v>
       </c>
       <c r="K53">
-        <v>-4210.698241108986</v>
+        <v>3980553.858012512</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2297,28 +2294,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>48.32174966612499</v>
+        <v>1116397.288970307</v>
       </c>
       <c r="G54">
-        <v>369.1867166997103</v>
+        <v>4841864.120995503</v>
       </c>
       <c r="H54">
-        <v>1486.403555605641</v>
+        <v>3986354.835991174</v>
       </c>
       <c r="I54">
-        <v>1483.188583752944</v>
+        <v>1117921.048599271</v>
       </c>
       <c r="J54">
-        <v>-423.9450175542883</v>
+        <v>4840681.021258234</v>
       </c>
       <c r="K54">
-        <v>-4727.301909200298</v>
+        <v>3980085.071780203</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2332,28 +2329,28 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>227.7473241343398</v>
+        <v>1116578.55162634</v>
       </c>
       <c r="G55">
-        <v>-62.87483145593025</v>
+        <v>4841120.143299971</v>
       </c>
       <c r="H55">
-        <v>371.9821596947756</v>
+        <v>3985229.776394575</v>
       </c>
       <c r="I55">
-        <v>-2188.694276895218</v>
+        <v>1114861.153695118</v>
       </c>
       <c r="J55">
-        <v>2623.332161683883</v>
+        <v>4843224.002504718</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984371.521232603</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2367,28 +2364,28 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>227.7473241343398</v>
+        <v>1116578.55162634</v>
       </c>
       <c r="G56">
-        <v>-62.87483145593025</v>
+        <v>4841120.143299971</v>
       </c>
       <c r="H56">
-        <v>371.9821596947756</v>
+        <v>3985229.776394575</v>
       </c>
       <c r="I56">
-        <v>-2145.483623951381</v>
+        <v>1114890.76768617</v>
       </c>
       <c r="J56">
-        <v>2559.517523616559</v>
+        <v>4843175.35090917</v>
       </c>
       <c r="K56">
-        <v>398.3214070517192</v>
+        <v>3984675.31731608</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2402,28 +2399,28 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>227.7473241343398</v>
+        <v>1116578.55162634</v>
       </c>
       <c r="G57">
-        <v>-62.87483145593025</v>
+        <v>4841120.143299971</v>
       </c>
       <c r="H57">
-        <v>371.9821596947756</v>
+        <v>3985229.776394575</v>
       </c>
       <c r="I57">
-        <v>-2101.208948431874</v>
+        <v>1114921.110894507</v>
       </c>
       <c r="J57">
-        <v>2495.702885549235</v>
+        <v>4843126.699313622</v>
       </c>
       <c r="K57">
-        <v>776.7806829080572</v>
+        <v>3984963.964734284</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2437,28 +2434,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>227.7473241343398</v>
+        <v>1116578.55162634</v>
       </c>
       <c r="G58">
-        <v>-62.87483145593025</v>
+        <v>4841120.143299971</v>
       </c>
       <c r="H58">
-        <v>371.9821596947756</v>
+        <v>3985229.776394575</v>
       </c>
       <c r="I58">
-        <v>-2055.844049759653</v>
+        <v>1114952.201276435</v>
       </c>
       <c r="J58">
-        <v>2431.888247481911</v>
+        <v>4843078.047718075</v>
       </c>
       <c r="K58">
-        <v>1135.377827569017</v>
+        <v>3985237.463487214</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2472,28 +2469,28 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>227.7473241343398</v>
+        <v>1116578.55162634</v>
       </c>
       <c r="G59">
-        <v>-62.87483145593025</v>
+        <v>4841120.143299971</v>
       </c>
       <c r="H59">
-        <v>371.9821596947756</v>
+        <v>3985229.776394575</v>
       </c>
       <c r="I59">
-        <v>-2009.36208219257</v>
+        <v>1114984.057230415</v>
       </c>
       <c r="J59">
-        <v>2368.073609414587</v>
+        <v>4843029.396122528</v>
       </c>
       <c r="K59">
-        <v>1474.112841034595</v>
+        <v>3985495.813574871</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2507,28 +2504,28 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>227.7473241343398</v>
+        <v>1116578.55162634</v>
       </c>
       <c r="G60">
-        <v>-62.87483145593025</v>
+        <v>4841120.143299971</v>
       </c>
       <c r="H60">
-        <v>371.9821596947756</v>
+        <v>3985229.776394575</v>
       </c>
       <c r="I60">
-        <v>-1961.735538936774</v>
+        <v>1115016.697607954</v>
       </c>
       <c r="J60">
-        <v>2304.258971347263</v>
+        <v>4842980.744526981</v>
       </c>
       <c r="K60">
-        <v>1792.985723304796</v>
+        <v>3985739.014997255</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2542,28 +2539,28 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>227.7473241343398</v>
+        <v>1116578.55162634</v>
       </c>
       <c r="G61">
-        <v>-62.87483145593025</v>
+        <v>4841120.143299971</v>
       </c>
       <c r="H61">
-        <v>371.9821596947756</v>
+        <v>3985229.776394575</v>
       </c>
       <c r="I61">
-        <v>-1912.93623586892</v>
+        <v>1115050.141724762</v>
       </c>
       <c r="J61">
-        <v>2240.444333279939</v>
+        <v>4842932.092931434</v>
       </c>
       <c r="K61">
-        <v>2091.996474379616</v>
+        <v>3985967.067754365</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2577,28 +2574,28 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>227.7473241343398</v>
+        <v>1116578.55162634</v>
       </c>
       <c r="G62">
-        <v>-62.87483145593025</v>
+        <v>4841120.143299971</v>
       </c>
       <c r="H62">
-        <v>371.9821596947756</v>
+        <v>3985229.776394575</v>
       </c>
       <c r="I62">
-        <v>-1862.935294857556</v>
+        <v>1115084.409372179</v>
       </c>
       <c r="J62">
-        <v>2176.629695212614</v>
+        <v>4842883.441335887</v>
       </c>
       <c r="K62">
-        <v>2371.145094259057</v>
+        <v>3986179.971846201</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2612,28 +2609,28 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>227.7473241343398</v>
+        <v>1116578.55162634</v>
       </c>
       <c r="G63">
-        <v>-52.49242697248556</v>
+        <v>4841136.656104106</v>
       </c>
       <c r="H63">
-        <v>371.9821596947756</v>
+        <v>3985229.776394575</v>
       </c>
       <c r="I63">
-        <v>-1811.70312667381</v>
+        <v>1115119.520828887</v>
       </c>
       <c r="J63">
-        <v>2112.815057145291</v>
+        <v>4842834.78974034</v>
       </c>
       <c r="K63">
-        <v>2630.431582943117</v>
+        <v>3986377.727272764</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2647,28 +2644,28 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>176.7584917245492</v>
+        <v>1116529.871060487</v>
       </c>
       <c r="G64">
-        <v>-42.11002248904087</v>
+        <v>4841153.168908239</v>
       </c>
       <c r="H64">
-        <v>458.2795176552484</v>
+        <v>3985429.03087375</v>
       </c>
       <c r="I64">
-        <v>-1759.209413481269</v>
+        <v>1115155.496872915</v>
       </c>
       <c r="J64">
-        <v>2049.000419077966</v>
+        <v>4842786.138144793</v>
       </c>
       <c r="K64">
-        <v>2869.855940431798</v>
+        <v>3986560.334034055</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2682,28 +2679,28 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>146.805110559749</v>
+        <v>1116501.273670129</v>
       </c>
       <c r="G65">
-        <v>-31.72761800559619</v>
+        <v>4841169.681712373</v>
       </c>
       <c r="H65">
-        <v>509.6826374709437</v>
+        <v>3985547.717031807</v>
       </c>
       <c r="I65">
-        <v>-1705.423090894692</v>
+        <v>1115192.358793929</v>
       </c>
       <c r="J65">
-        <v>1985.185781010642</v>
+        <v>4842737.486549244</v>
       </c>
       <c r="K65">
-        <v>3089.418166725099</v>
+        <v>3986727.792130071</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2717,28 +2714,28 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>127.8963388773023</v>
+        <v>1116483.220899325</v>
       </c>
       <c r="G66">
-        <v>-21.34521352215151</v>
+        <v>4841186.194516508</v>
       </c>
       <c r="H66">
-        <v>546.416972999169</v>
+        <v>3985632.534007279</v>
       </c>
       <c r="I66">
-        <v>-1650.31232959693</v>
+        <v>1115230.128405837</v>
       </c>
       <c r="J66">
-        <v>1921.371142943318</v>
+        <v>4842688.834953697</v>
       </c>
       <c r="K66">
-        <v>3289.118261823021</v>
+        <v>3986880.101560813</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2752,28 +2749,28 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>114.7094382611744</v>
+        <v>1116470.630970246</v>
       </c>
       <c r="G67">
-        <v>-10.96280903870682</v>
+        <v>4841202.707320642</v>
       </c>
       <c r="H67">
-        <v>575.0219803945636</v>
+        <v>3985698.580940639</v>
       </c>
       <c r="I67">
-        <v>-1593.844516503182</v>
+        <v>1115268.82805969</v>
       </c>
       <c r="J67">
-        <v>1857.556504875994</v>
+        <v>4842640.183358151</v>
       </c>
       <c r="K67">
-        <v>3468.956225725564</v>
+        <v>3987017.262326283</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2787,28 +2784,28 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>104.8716154989267</v>
+        <v>1116461.238506128</v>
       </c>
       <c r="G68">
-        <v>-0.5804045552621391</v>
+        <v>4841219.220124776</v>
       </c>
       <c r="H68">
-        <v>598.451700258013</v>
+        <v>3985752.678502128</v>
       </c>
       <c r="I68">
-        <v>-1535.986235461435</v>
+        <v>1115308.480656916</v>
       </c>
       <c r="J68">
-        <v>1793.74186680867</v>
+        <v>4842591.531762604</v>
       </c>
       <c r="K68">
-        <v>3628.932058432726</v>
+        <v>3987139.274426479</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2822,28 +2819,28 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>97.17981191006864</v>
+        <v>1116453.894910807</v>
       </c>
       <c r="G69">
-        <v>9.801999928182548</v>
+        <v>4841235.732928909</v>
       </c>
       <c r="H69">
-        <v>618.2949626956985</v>
+        <v>3985798.495187778</v>
       </c>
       <c r="I69">
-        <v>-1476.703247477679</v>
+        <v>1115349.109662869</v>
       </c>
       <c r="J69">
-        <v>1729.927228741346</v>
+        <v>4842542.880167056</v>
       </c>
       <c r="K69">
-        <v>3769.045759944508</v>
+        <v>3987246.137861402</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2857,28 +2854,28 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>90.95658274809884</v>
+        <v>1116447.953407487</v>
       </c>
       <c r="G70">
-        <v>20.18440441162723</v>
+        <v>4841252.245733044</v>
       </c>
       <c r="H70">
-        <v>635.5053788637086</v>
+        <v>3985838.232818118</v>
       </c>
       <c r="I70">
-        <v>-1415.96047045417</v>
+        <v>1115390.739120716</v>
       </c>
       <c r="J70">
-        <v>1666.112590674022</v>
+        <v>4842494.228571509</v>
       </c>
       <c r="K70">
-        <v>3889.297330260911</v>
+        <v>3987337.852631051</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2892,28 +2889,28 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>85.78908508288885</v>
+        <v>1116443.019842655</v>
       </c>
       <c r="G71">
-        <v>30.56680889507192</v>
+        <v>4841268.758537178</v>
       </c>
       <c r="H71">
-        <v>650.7004733057297</v>
+        <v>3985873.317213522</v>
       </c>
       <c r="I71">
-        <v>-1353.721958428789</v>
+        <v>1115433.393665664</v>
       </c>
       <c r="J71">
-        <v>1602.297952606697</v>
+        <v>4842445.576975962</v>
       </c>
       <c r="K71">
-        <v>3989.686769381934</v>
+        <v>3987414.418735427</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2927,28 +2924,28 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>81.41001961751329</v>
+        <v>1116438.839017665</v>
       </c>
       <c r="G72">
-        <v>40.94921337851661</v>
+        <v>4841285.271341312</v>
       </c>
       <c r="H72">
-        <v>664.3031405231557</v>
+        <v>3985904.724807403</v>
       </c>
       <c r="I72">
-        <v>-1289.950880303163</v>
+        <v>1115477.098539539</v>
       </c>
       <c r="J72">
-        <v>1538.483314539373</v>
+        <v>4842396.925380415</v>
       </c>
       <c r="K72">
-        <v>4070.214077307578</v>
+        <v>3987475.83617453</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2962,28 +2959,28 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>77.63788194232306</v>
+        <v>1116435.237644819</v>
       </c>
       <c r="G73">
-        <v>51.33161786196129</v>
+        <v>4841301.784145446</v>
       </c>
       <c r="H73">
-        <v>676.6157147647922</v>
+        <v>3985933.153668097</v>
       </c>
       <c r="I73">
-        <v>-1224.60949804701</v>
+        <v>1115521.879605727</v>
       </c>
       <c r="J73">
-        <v>1474.668676472049</v>
+        <v>4842348.273784867</v>
       </c>
       <c r="K73">
-        <v>4130.879254037842</v>
+        <v>3987522.104948359</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2997,28 +2994,28 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>74.34461083898597</v>
+        <v>1116432.093460235</v>
       </c>
       <c r="G74">
-        <v>61.71402234540597</v>
+        <v>4841318.29694958</v>
       </c>
       <c r="H74">
-        <v>687.8618454583391</v>
+        <v>3985959.120186274</v>
       </c>
       <c r="I74">
-        <v>-1157.659144365768</v>
+        <v>1115567.763364471</v>
       </c>
       <c r="J74">
-        <v>1410.854038404725</v>
+        <v>4842299.62218932</v>
       </c>
       <c r="K74">
-        <v>4171.682299572726</v>
+        <v>3987553.225056914</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3032,28 +3029,28 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>71.43696371696845</v>
+        <v>1116429.317442419</v>
       </c>
       <c r="G75">
-        <v>72.09642682885067</v>
+        <v>4841334.809753714</v>
       </c>
       <c r="H75">
-        <v>698.2116352343246</v>
+        <v>3985983.017116842</v>
       </c>
       <c r="I75">
-        <v>-1089.060199818322</v>
+        <v>1115614.776968562</v>
       </c>
       <c r="J75">
-        <v>1347.039400337401</v>
+        <v>4842250.970593773</v>
       </c>
       <c r="K75">
-        <v>4192.623213912231</v>
+        <v>3987569.196500196</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3067,28 +3064,28 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>68.84524139950403</v>
+        <v>1116426.843047478</v>
       </c>
       <c r="G76">
-        <v>82.47883131229534</v>
+        <v>4841351.322557848</v>
       </c>
       <c r="H76">
-        <v>707.7974774665533</v>
+        <v>3986005.150146712</v>
       </c>
       <c r="I76">
-        <v>-1018.772069371266</v>
+        <v>1115662.948239402</v>
       </c>
       <c r="J76">
-        <v>1283.224762270077</v>
+        <v>4842202.318998226</v>
       </c>
       <c r="K76">
-        <v>4193.701997056355</v>
+        <v>3987570.019278205</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3102,28 +3099,28 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>66.51616958915017</v>
+        <v>1116424.619412845</v>
       </c>
       <c r="G77">
-        <v>92.86123579574004</v>
+        <v>4841367.835361983</v>
       </c>
       <c r="H77">
-        <v>716.7244394918959</v>
+        <v>3986025.761868913</v>
       </c>
       <c r="I77">
-        <v>-946.7531583758469</v>
+        <v>1115712.30568347</v>
       </c>
       <c r="J77">
-        <v>1219.410124202753</v>
+        <v>4842153.667402678</v>
       </c>
       <c r="K77">
-        <v>4174.918649005101</v>
+        <v>3987555.69339094</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3137,28 +3134,28 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>64.40824213418465</v>
+        <v>1116422.606911353</v>
       </c>
       <c r="G78">
-        <v>103.2436402791847</v>
+        <v>4841384.348166117</v>
       </c>
       <c r="H78">
-        <v>725.0773010831535</v>
+        <v>3986045.048033928</v>
       </c>
       <c r="I78">
-        <v>-872.9608479533475</v>
+        <v>1115762.878509189</v>
       </c>
       <c r="J78">
-        <v>1155.595486135429</v>
+        <v>4842105.015807131</v>
       </c>
       <c r="K78">
-        <v>4136.273169758467</v>
+        <v>3987526.218838402</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3172,28 +3169,28 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>62.48858059107822</v>
+        <v>1116420.774152968</v>
       </c>
       <c r="G79">
-        <v>113.6260447626294</v>
+        <v>4841400.86097025</v>
       </c>
       <c r="H79">
-        <v>732.9254632168532</v>
+        <v>3986063.168883689</v>
       </c>
       <c r="I79">
-        <v>-797.3514697743753</v>
+        <v>1115814.696644216</v>
       </c>
       <c r="J79">
-        <v>1091.780848068104</v>
+        <v>4842056.364211584</v>
       </c>
       <c r="K79">
-        <v>4077.765559316452</v>
+        <v>3987481.59562059</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3207,28 +3204,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>60.73075977354892</v>
+        <v>1116419.095908772</v>
       </c>
       <c r="G80">
-        <v>124.0084492460741</v>
+        <v>4841417.373774384</v>
       </c>
       <c r="H80">
-        <v>740.3264564945331</v>
+        <v>3986080.257252276</v>
       </c>
       <c r="I80">
-        <v>-719.8802802170986</v>
+        <v>1115867.790753147</v>
       </c>
       <c r="J80">
-        <v>1027.96621000078</v>
+        <v>4842007.712616037</v>
       </c>
       <c r="K80">
-        <v>3999.395817679058</v>
+        <v>3987421.823737505</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3242,28 +3239,28 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>59.11326703285236</v>
+        <v>1116417.551639994</v>
       </c>
       <c r="G81">
-        <v>134.3908537295188</v>
+        <v>4841433.886578519</v>
       </c>
       <c r="H81">
-        <v>747.3285028318027</v>
+        <v>3986096.424480672</v>
       </c>
       <c r="I81">
-        <v>-640.5014338891618</v>
+        <v>1115922.192255664</v>
       </c>
       <c r="J81">
-        <v>964.1515719334562</v>
+        <v>4841959.06102049</v>
       </c>
       <c r="K81">
-        <v>3901.163944846285</v>
+        <v>3987346.903189146</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3277,28 +3274,28 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>57.61838814329962</v>
+        <v>1116416.124434334</v>
       </c>
       <c r="G82">
-        <v>144.7732582129635</v>
+        <v>4841450.399382653</v>
       </c>
       <c r="H82">
-        <v>753.972421346229</v>
+        <v>3986111.764817324</v>
       </c>
       <c r="I82">
-        <v>-559.1679564975981</v>
+        <v>1115977.933345132</v>
       </c>
       <c r="J82">
-        <v>900.336933866132</v>
+        <v>4841910.409424942</v>
       </c>
       <c r="K82">
-        <v>3783.069940818132</v>
+        <v>3987256.833975515</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3312,28 +3309,28 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>56.23138698237013</v>
+        <v>1116414.800222773</v>
       </c>
       <c r="G83">
-        <v>155.1556626964081</v>
+        <v>4841466.912186787</v>
       </c>
       <c r="H83">
-        <v>760.293070133773</v>
+        <v>3986126.358747103</v>
       </c>
       <c r="I83">
-        <v>-475.8317170506946</v>
+        <v>1116035.047007647</v>
       </c>
       <c r="J83">
-        <v>836.5222957988077</v>
+        <v>4841861.757829395</v>
       </c>
       <c r="K83">
-        <v>3645.113805594598</v>
+        <v>3987151.61609661</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3347,28 +3344,28 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>54.93989169108719</v>
+        <v>1116413.567193527</v>
       </c>
       <c r="G84">
-        <v>165.5380671798528</v>
+        <v>4841483.424990921</v>
       </c>
       <c r="H84">
-        <v>766.3204532799385</v>
+        <v>3986140.275547315</v>
       </c>
       <c r="I84">
-        <v>-390.4433993753458</v>
+        <v>1116093.567041558</v>
       </c>
       <c r="J84">
-        <v>772.7076577314838</v>
+        <v>4841813.106233847</v>
       </c>
       <c r="K84">
-        <v>3487.295539175686</v>
+        <v>3987031.249552431</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3382,28 +3379,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>53.73342861533446</v>
+        <v>1116412.415347085</v>
       </c>
       <c r="G85">
-        <v>175.9204716632975</v>
+        <v>4841499.937795055</v>
       </c>
       <c r="H85">
-        <v>772.080582255682</v>
+        <v>3986153.575276602</v>
       </c>
       <c r="I85">
-        <v>-302.9524729330535</v>
+        <v>1116153.528077467</v>
       </c>
       <c r="J85">
-        <v>708.8930196641595</v>
+        <v>4841764.4546383</v>
       </c>
       <c r="K85">
-        <v>3309.615141561394</v>
+        <v>3986895.734342979</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3417,28 +3414,28 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>52.60306376639042</v>
+        <v>1116411.336153899</v>
       </c>
       <c r="G86">
-        <v>186.3028761467422</v>
+        <v>4841516.450599189</v>
       </c>
       <c r="H86">
-        <v>777.5961543232086</v>
+        <v>3986166.310341332</v>
       </c>
       <c r="I86">
-        <v>-213.3071629172956</v>
+        <v>1116214.965598722</v>
       </c>
       <c r="J86">
-        <v>645.0783815968356</v>
+        <v>4841715.803042754</v>
       </c>
       <c r="K86">
-        <v>3112.072612751722</v>
+        <v>3986745.070468253</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3452,28 +3449,28 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>51.54112368018662</v>
+        <v>1116410.322287885</v>
       </c>
       <c r="G87">
-        <v>196.6852806301869</v>
+        <v>4841532.963403324</v>
       </c>
       <c r="H87">
-        <v>782.8870927047358</v>
+        <v>3986178.526742812</v>
       </c>
       <c r="I87">
-        <v>-121.4544196145725</v>
+        <v>1116277.915962416</v>
       </c>
       <c r="J87">
-        <v>581.2637435295113</v>
+        <v>4841667.151447207</v>
       </c>
       <c r="K87">
-        <v>2894.66795274667</v>
+        <v>3986579.257928254</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3487,28 +3484,28 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>50.5409757088718</v>
+        <v>1116409.367416654</v>
       </c>
       <c r="G88">
-        <v>207.0676851136316</v>
+        <v>4841549.476207457</v>
       </c>
       <c r="H88">
-        <v>787.970980996608</v>
+        <v>3986190.26508032</v>
       </c>
       <c r="I88">
-        <v>-27.33988701099462</v>
+        <v>1116342.416420903</v>
       </c>
       <c r="J88">
-        <v>517.449105462187</v>
+        <v>4841618.499851659</v>
       </c>
       <c r="K88">
-        <v>2657.401161546239</v>
+        <v>3986398.296722981</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3522,28 +3519,28 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>49.59685335350828</v>
+        <v>1116408.466034757</v>
       </c>
       <c r="G89">
-        <v>217.4500895970763</v>
+        <v>4841565.989011591</v>
       </c>
       <c r="H89">
-        <v>792.8634157410459</v>
+        <v>3986201.561365165</v>
       </c>
       <c r="I89">
-        <v>69.09212937416427</v>
+        <v>1116408.505143841</v>
       </c>
       <c r="J89">
-        <v>453.6344673948631</v>
+        <v>4841569.848256112</v>
       </c>
       <c r="K89">
-        <v>2400.272239150428</v>
+        <v>3986202.186852436</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3557,28 +3554,28 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>48.70371612164865</v>
+        <v>1116407.613329884</v>
       </c>
       <c r="G90">
-        <v>227.8324940805209</v>
+        <v>4841582.501815726</v>
       </c>
       <c r="H90">
-        <v>797.5782949882687</v>
+        <v>3986212.44768696</v>
       </c>
       <c r="I90">
-        <v>167.8986954469792</v>
+        <v>1116476.221240781</v>
       </c>
       <c r="J90">
-        <v>389.8198293275389</v>
+        <v>4841521.196660565</v>
       </c>
       <c r="K90">
-        <v>2123.281185559238</v>
+        <v>3985990.928316616</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3592,28 +3589,28 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>47.85713612739183</v>
+        <v>1116406.805074601</v>
       </c>
       <c r="G91">
-        <v>238.2148985639656</v>
+        <v>4841599.014619859</v>
       </c>
       <c r="H91">
-        <v>802.1280563069407</v>
+        <v>3986222.952763168</v>
       </c>
       <c r="I91">
-        <v>269.1382823089642</v>
+        <v>1116545.60478431</v>
       </c>
       <c r="J91">
-        <v>326.0051912602149</v>
+        <v>4841472.545065017</v>
       </c>
       <c r="K91">
-        <v>1826.428000772668</v>
+        <v>3985764.521115523</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3627,28 +3624,28 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>47.05320560716559</v>
+        <v>1116406.037538049</v>
       </c>
       <c r="G92">
-        <v>248.5973030474103</v>
+        <v>4841615.527423994</v>
       </c>
       <c r="H92">
-        <v>806.5238745112357</v>
+        <v>3986233.102395642</v>
       </c>
       <c r="I92">
-        <v>372.8708008587123</v>
+        <v>1116616.696833767</v>
       </c>
       <c r="J92">
-        <v>262.1905531928907</v>
+        <v>4841423.89346947</v>
       </c>
       <c r="K92">
-        <v>1509.712684790717</v>
+        <v>3985522.965249157</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3662,28 +3659,28 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>46.28846094139422</v>
+        <v>1116405.307413406</v>
       </c>
       <c r="G93">
-        <v>258.979707530855</v>
+        <v>4841632.040228128</v>
       </c>
       <c r="H93">
-        <v>810.7758270189285</v>
+        <v>3986242.919852427</v>
       </c>
       <c r="I93">
-        <v>479.1576372455818</v>
+        <v>1116689.539459538</v>
       </c>
       <c r="J93">
-        <v>198.3759151255664</v>
+        <v>4841375.241873923</v>
       </c>
       <c r="K93">
-        <v>1173.135237613387</v>
+        <v>3985266.260717518</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3697,28 +3694,28 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>45.55981981100087</v>
+        <v>1116404.61175789</v>
       </c>
       <c r="G94">
-        <v>269.3621120142997</v>
+        <v>4841648.553032261</v>
       </c>
       <c r="H94">
-        <v>814.8930329982015</v>
+        <v>3986252.426189033</v>
       </c>
       <c r="I94">
-        <v>588.0616891963797</v>
+        <v>1116764.175767955</v>
       </c>
       <c r="J94">
-        <v>134.5612770582425</v>
+        <v>4841326.590278376</v>
       </c>
       <c r="K94">
-        <v>816.6956592406783</v>
+        <v>3984994.407520605</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3732,28 +3729,28 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>44.86452888768563</v>
+        <v>1116403.947942815</v>
       </c>
       <c r="G95">
-        <v>279.7445164977444</v>
+        <v>4841665.065836396</v>
       </c>
       <c r="H95">
-        <v>818.883771136111</v>
+        <v>3986261.640520364</v>
       </c>
       <c r="I95">
-        <v>699.6474032365778</v>
+        <v>1116840.649926802</v>
       </c>
       <c r="J95">
-        <v>70.74663899091823</v>
+        <v>4841277.938682829</v>
       </c>
       <c r="K95">
-        <v>440.3939496725887</v>
+        <v>3984707.405658418</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3767,28 +3764,28 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>44.2001200335194</v>
+        <v>1116403.313611778</v>
       </c>
       <c r="G96">
-        <v>290.1269209811891</v>
+        <v>4841681.578640531</v>
       </c>
       <c r="H96">
-        <v>822.7555798529489</v>
+        <v>3986270.580252096</v>
       </c>
       <c r="I96">
-        <v>813.9808128280403</v>
+        <v>1116919.007191457</v>
       </c>
       <c r="J96">
-        <v>6.932000923593976</v>
+        <v>4841229.287087281</v>
       </c>
       <c r="K96">
-        <v>44.23010890911965</v>
+        <v>3984405.255130959</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3802,28 +3799,28 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>43.56437342133086</v>
+        <v>1116402.706645441</v>
       </c>
       <c r="G97">
-        <v>300.5093254646337</v>
+        <v>4841698.091444664</v>
       </c>
       <c r="H97">
-        <v>826.5153430116685</v>
+        <v>3986279.26127858</v>
       </c>
       <c r="I97">
-        <v>931.1295774458835</v>
+        <v>1116999.293931666</v>
       </c>
       <c r="J97">
-        <v>-56.88263714372997</v>
+        <v>4841180.635491734</v>
       </c>
       <c r="K97">
-        <v>-371.7958630497279</v>
+        <v>3984087.955938225</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3837,28 +3834,28 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>42.95528631990306</v>
+        <v>1116402.125131738</v>
       </c>
       <c r="G98">
-        <v>310.8917299480784</v>
+        <v>4841714.604248798</v>
       </c>
       <c r="H98">
-        <v>830.1693635709811</v>
+        <v>3986287.698152903</v>
       </c>
       <c r="I98">
-        <v>1051.163022617554</v>
+        <v>1117081.55765899</v>
       </c>
       <c r="J98">
-        <v>-120.6972752110542</v>
+        <v>4841131.983896188</v>
       </c>
       <c r="K98">
-        <v>-807.6839662039563</v>
+        <v>3983755.508080218</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3872,28 +3869,28 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>42.37104654379682</v>
+        <v>1116401.567340521</v>
       </c>
       <c r="G99">
-        <v>321.2741344315231</v>
+        <v>4841731.117052932</v>
       </c>
       <c r="H99">
-        <v>833.7234271616429</v>
+        <v>3986295.904233673</v>
       </c>
       <c r="I99">
-        <v>1174.152180947834</v>
+        <v>1117165.847054918</v>
       </c>
       <c r="J99">
-        <v>-184.5119132783785</v>
+        <v>4841083.33230064</v>
       </c>
       <c r="K99">
-        <v>-1263.434200553565</v>
+        <v>3983407.911556938</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3907,28 +3904,28 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>41.81000976595343</v>
+        <v>1116401.031701901</v>
       </c>
       <c r="G100">
-        <v>331.6565389149678</v>
+        <v>4841747.629857066</v>
       </c>
       <c r="H100">
-        <v>837.1828571963501</v>
+        <v>3986303.891812275</v>
       </c>
       <c r="I100">
-        <v>1300.169834154045</v>
+        <v>1117252.211999676</v>
       </c>
       <c r="J100">
-        <v>-248.3265513457027</v>
+        <v>4841034.680705092</v>
       </c>
       <c r="K100">
-        <v>-1739.046566098554</v>
+        <v>3983045.166368385</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3942,28 +3939,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>41.27068004614141</v>
+        <v>1116400.51678766</v>
       </c>
       <c r="G101">
-        <v>342.0389433984125</v>
+        <v>4841764.142661201</v>
       </c>
       <c r="H101">
-        <v>840.5525628311701</v>
+        <v>3986311.6722236</v>
       </c>
       <c r="I101">
-        <v>1429.290556136344</v>
+        <v>1117340.703601745</v>
       </c>
       <c r="J101">
-        <v>-312.1411894130264</v>
+        <v>4840986.029109545</v>
       </c>
       <c r="K101">
-        <v>-2234.521062838918</v>
+        <v>3982667.272514557</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3977,28 +3974,28 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>40.75169305016832</v>
+        <v>1116400.021295227</v>
       </c>
       <c r="G102">
-        <v>352.4213478818572</v>
+        <v>4841780.655465334</v>
       </c>
       <c r="H102">
-        <v>843.8370808631261</v>
+        <v>3986319.255942792</v>
       </c>
       <c r="I102">
-        <v>1561.590757108572</v>
+        <v>1117431.374228104</v>
       </c>
       <c r="J102">
-        <v>-375.9558274803506</v>
+        <v>4840937.377513998</v>
       </c>
       <c r="K102">
-        <v>-2749.857690774665</v>
+        <v>3982274.229995457</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4012,28 +4009,28 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>40.25180153126058</v>
+        <v>1116399.544033818</v>
       </c>
       <c r="G103">
-        <v>362.8037523653018</v>
+        <v>4841797.168269468</v>
       </c>
       <c r="H103">
-        <v>847.0406124612873</v>
+        <v>3986326.652670052</v>
       </c>
       <c r="I103">
-        <v>1697.148728815787</v>
+        <v>1117524.277535221</v>
       </c>
       <c r="J103">
-        <v>-439.7704655476749</v>
+        <v>4840888.72591845</v>
       </c>
       <c r="K103">
-        <v>-3285.056449905792</v>
+        <v>3981866.038811083</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4047,28 +4044,28 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>39.76986272188879</v>
+        <v>1116399.083912398</v>
       </c>
       <c r="G104">
-        <v>373.1861568487465</v>
+        <v>4841813.681073603</v>
       </c>
       <c r="H104">
-        <v>850.1670554775117</v>
+        <v>3986333.871405244</v>
       </c>
       <c r="I104">
-        <v>1836.044690865245</v>
+        <v>1117619.468500807</v>
       </c>
       <c r="J104">
-        <v>-503.5851036149991</v>
+        <v>4840840.074322904</v>
       </c>
       <c r="K104">
-        <v>-3840.117340232299</v>
+        <v>3981442.698961436</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4082,28 +4079,28 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>39.30482734593338</v>
+        <v>1116398.639929193</v>
       </c>
       <c r="G105">
-        <v>383.5685613321912</v>
+        <v>4841830.193877736</v>
       </c>
       <c r="H105">
-        <v>853.2200329602182</v>
+        <v>3986340.920513729</v>
       </c>
       <c r="I105">
-        <v>1978.36083819823</v>
+        <v>1117717.003456346</v>
       </c>
       <c r="J105">
-        <v>-567.3997416823233</v>
+        <v>4840791.422727357</v>
       </c>
       <c r="K105">
-        <v>-4415.040361754185</v>
+        <v>3981004.210446515</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4117,28 +4114,28 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>38.85573001074479</v>
+        <v>1116398.211162513</v>
       </c>
       <c r="G106">
-        <v>393.9509658156359</v>
+        <v>4841846.706681871</v>
       </c>
       <c r="H106">
-        <v>856.2029183943527</v>
+        <v>3986347.807784645</v>
       </c>
       <c r="I106">
-        <v>2124.181389730833</v>
+        <v>1117816.940120435</v>
       </c>
       <c r="J106">
-        <v>-631.214379749647</v>
+        <v>4840742.77113181</v>
       </c>
       <c r="K106">
-        <v>-5009.825514471448</v>
+        <v>3980550.573266321</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4152,1883 +4149,28 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>38.42168077889956</v>
+        <v>1116397.796762708</v>
       </c>
       <c r="G107">
-        <v>404.3333702990806</v>
+        <v>4841863.219486006</v>
       </c>
       <c r="H107">
-        <v>859.118858108502</v>
+        <v>3986354.540482642</v>
       </c>
       <c r="I107">
-        <v>2273.59263819248</v>
+        <v>1117919.337632937</v>
       </c>
       <c r="J107">
-        <v>-695.0290178169712</v>
+        <v>4840694.119536262</v>
       </c>
       <c r="K107">
-        <v>-5624.472798384093</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>93</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108">
-        <v>152.142</v>
-      </c>
-      <c r="F108">
-        <v>202.2954361389641</v>
-      </c>
-      <c r="G108">
-        <v>-66.92019230333499</v>
-      </c>
-      <c r="H108">
-        <v>767.31124333331</v>
-      </c>
-      <c r="I108">
-        <v>-1159.651130501388</v>
-      </c>
-      <c r="J108">
-        <v>1329.518563723278</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>93</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109">
-        <v>153.142</v>
-      </c>
-      <c r="F109">
-        <v>202.2954361389641</v>
-      </c>
-      <c r="G109">
-        <v>-66.92019230333499</v>
-      </c>
-      <c r="H109">
-        <v>767.31124333331</v>
-      </c>
-      <c r="I109">
-        <v>-1136.756529338951</v>
-      </c>
-      <c r="J109">
-        <v>1297.176968866556</v>
-      </c>
-      <c r="K109">
-        <v>379.3341563452543</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>93</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110">
-        <v>154.142</v>
-      </c>
-      <c r="F110">
-        <v>202.2954361389641</v>
-      </c>
-      <c r="G110">
-        <v>-66.92019230333499</v>
-      </c>
-      <c r="H110">
-        <v>767.31124333331</v>
-      </c>
-      <c r="I110">
-        <v>-1113.298169685537</v>
-      </c>
-      <c r="J110">
-        <v>1264.835374009833</v>
-      </c>
-      <c r="K110">
-        <v>739.7529728497843</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>93</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111">
-        <v>155.142</v>
-      </c>
-      <c r="F111">
-        <v>202.2954361389641</v>
-      </c>
-      <c r="G111">
-        <v>-66.92019230333499</v>
-      </c>
-      <c r="H111">
-        <v>767.31124333331</v>
-      </c>
-      <c r="I111">
-        <v>-1089.262169506952</v>
-      </c>
-      <c r="J111">
-        <v>1232.493779153111</v>
-      </c>
-      <c r="K111">
-        <v>1081.256449513593</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>93</v>
-      </c>
-      <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112">
-        <v>156.142</v>
-      </c>
-      <c r="F112">
-        <v>202.2954361389641</v>
-      </c>
-      <c r="G112">
-        <v>-66.92019230333499</v>
-      </c>
-      <c r="H112">
-        <v>767.31124333331</v>
-      </c>
-      <c r="I112">
-        <v>-1064.634304936684</v>
-      </c>
-      <c r="J112">
-        <v>1200.152184296389</v>
-      </c>
-      <c r="K112">
-        <v>1403.844586336678</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>93</v>
-      </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113">
-        <v>157.142</v>
-      </c>
-      <c r="F113">
-        <v>202.2954361389641</v>
-      </c>
-      <c r="G113">
-        <v>-66.92019230333499</v>
-      </c>
-      <c r="H113">
-        <v>767.31124333331</v>
-      </c>
-      <c r="I113">
-        <v>-1039.400001858592</v>
-      </c>
-      <c r="J113">
-        <v>1167.810589439667</v>
-      </c>
-      <c r="K113">
-        <v>1707.517383319041</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>93</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114">
-        <v>158.142</v>
-      </c>
-      <c r="F114">
-        <v>202.2954361389641</v>
-      </c>
-      <c r="G114">
-        <v>-66.92019230333499</v>
-      </c>
-      <c r="H114">
-        <v>767.31124333331</v>
-      </c>
-      <c r="I114">
-        <v>-1013.544327282336</v>
-      </c>
-      <c r="J114">
-        <v>1135.468994582944</v>
-      </c>
-      <c r="K114">
-        <v>1992.274840460682</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>93</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115">
-        <v>159.142</v>
-      </c>
-      <c r="F115">
-        <v>202.2954361389641</v>
-      </c>
-      <c r="G115">
-        <v>-66.92019230333499</v>
-      </c>
-      <c r="H115">
-        <v>767.31124333331</v>
-      </c>
-      <c r="I115">
-        <v>-987.0519805064247</v>
-      </c>
-      <c r="J115">
-        <v>1103.127399726222</v>
-      </c>
-      <c r="K115">
-        <v>2258.116957761599</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>93</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116">
-        <v>160.142</v>
-      </c>
-      <c r="F116">
-        <v>202.2954361389641</v>
-      </c>
-      <c r="G116">
-        <v>-55.86978487456734</v>
-      </c>
-      <c r="H116">
-        <v>767.31124333331</v>
-      </c>
-      <c r="I116">
-        <v>-959.9072840636684</v>
-      </c>
-      <c r="J116">
-        <v>1070.7858048695</v>
-      </c>
-      <c r="K116">
-        <v>2505.043735221794</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>93</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117">
-        <v>161.142</v>
-      </c>
-      <c r="F117">
-        <v>157.0048575130181</v>
-      </c>
-      <c r="G117">
-        <v>-44.81937744579968</v>
-      </c>
-      <c r="H117">
-        <v>945.3222885064534</v>
-      </c>
-      <c r="I117">
-        <v>-932.0941744436718</v>
-      </c>
-      <c r="J117">
-        <v>1038.444210012778</v>
-      </c>
-      <c r="K117">
-        <v>2733.055172841265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>93</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118">
-        <v>162.142</v>
-      </c>
-      <c r="F118">
-        <v>130.3989145909592</v>
-      </c>
-      <c r="G118">
-        <v>-33.76897001703203</v>
-      </c>
-      <c r="H118">
-        <v>1051.354770842047</v>
-      </c>
-      <c r="I118">
-        <v>-903.5961925868747</v>
-      </c>
-      <c r="J118">
-        <v>1006.102615156055</v>
-      </c>
-      <c r="K118">
-        <v>2942.151270620014</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>93</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119">
-        <v>163.142</v>
-      </c>
-      <c r="F119">
-        <v>113.6032915078255</v>
-      </c>
-      <c r="G119">
-        <v>-22.71856258826438</v>
-      </c>
-      <c r="H119">
-        <v>1127.129019505783</v>
-      </c>
-      <c r="I119">
-        <v>-874.396474144516</v>
-      </c>
-      <c r="J119">
-        <v>973.761020299333</v>
-      </c>
-      <c r="K119">
-        <v>3132.332028558042</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>93</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120">
-        <v>164.142</v>
-      </c>
-      <c r="F120">
-        <v>101.8900921470847</v>
-      </c>
-      <c r="G120">
-        <v>-11.66815515949672</v>
-      </c>
-      <c r="H120">
-        <v>1186.134386344151</v>
-      </c>
-      <c r="I120">
-        <v>-844.477739498763</v>
-      </c>
-      <c r="J120">
-        <v>941.4194254426108</v>
-      </c>
-      <c r="K120">
-        <v>3303.597446655346</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>93</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121">
-        <v>165.142</v>
-      </c>
-      <c r="F121">
-        <v>93.15169465367303</v>
-      </c>
-      <c r="G121">
-        <v>-0.617747730729075</v>
-      </c>
-      <c r="H121">
-        <v>1234.464358658216</v>
-      </c>
-      <c r="I121">
-        <v>-813.8222835370894</v>
-      </c>
-      <c r="J121">
-        <v>909.0778305858885</v>
-      </c>
-      <c r="K121">
-        <v>3455.947524911926</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>93</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122">
-        <v>166.142</v>
-      </c>
-      <c r="F122">
-        <v>86.31948809485766</v>
-      </c>
-      <c r="G122">
-        <v>10.43265969803858</v>
-      </c>
-      <c r="H122">
-        <v>1275.396317291241</v>
-      </c>
-      <c r="I122">
-        <v>-782.4119651748622</v>
-      </c>
-      <c r="J122">
-        <v>876.7362357291662</v>
-      </c>
-      <c r="K122">
-        <v>3589.382263327785</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>93</v>
-      </c>
-      <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123">
-        <v>167.142</v>
-      </c>
-      <c r="F123">
-        <v>80.79173551950444</v>
-      </c>
-      <c r="G123">
-        <v>21.48306712680624</v>
-      </c>
-      <c r="H123">
-        <v>1310.897336584734</v>
-      </c>
-      <c r="I123">
-        <v>-750.2281966199278</v>
-      </c>
-      <c r="J123">
-        <v>844.394640872444</v>
-      </c>
-      <c r="K123">
-        <v>3703.90166190292</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>93</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124">
-        <v>168.142</v>
-      </c>
-      <c r="F124">
-        <v>76.20173123337675</v>
-      </c>
-      <c r="G124">
-        <v>32.53347455557388</v>
-      </c>
-      <c r="H124">
-        <v>1342.24122366373</v>
-      </c>
-      <c r="I124">
-        <v>-717.2519323728526</v>
-      </c>
-      <c r="J124">
-        <v>812.0530460157217</v>
-      </c>
-      <c r="K124">
-        <v>3799.505720637334</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>93</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125">
-        <v>169.142</v>
-      </c>
-      <c r="F125">
-        <v>72.31204795579546</v>
-      </c>
-      <c r="G125">
-        <v>43.58388198434155</v>
-      </c>
-      <c r="H125">
-        <v>1370.300309894685</v>
-      </c>
-      <c r="I125">
-        <v>-683.4636579562997</v>
-      </c>
-      <c r="J125">
-        <v>779.7114511589994</v>
-      </c>
-      <c r="K125">
-        <v>3876.194439531024</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>93</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126">
-        <v>170.142</v>
-      </c>
-      <c r="F126">
-        <v>68.96146529108452</v>
-      </c>
-      <c r="G126">
-        <v>54.63428941310919</v>
-      </c>
-      <c r="H126">
-        <v>1395.698239348441</v>
-      </c>
-      <c r="I126">
-        <v>-648.8433783668816</v>
-      </c>
-      <c r="J126">
-        <v>747.3698563022772</v>
-      </c>
-      <c r="K126">
-        <v>3933.967818583992</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>93</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127">
-        <v>171.142</v>
-      </c>
-      <c r="F127">
-        <v>66.03623349437436</v>
-      </c>
-      <c r="G127">
-        <v>65.68469684187684</v>
-      </c>
-      <c r="H127">
-        <v>1418.896347914279</v>
-      </c>
-      <c r="I127">
-        <v>-613.3706062426476</v>
-      </c>
-      <c r="J127">
-        <v>715.0282614455549</v>
-      </c>
-      <c r="K127">
-        <v>3972.825857796237</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>93</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128">
-        <v>172.142</v>
-      </c>
-      <c r="F128">
-        <v>63.45353029501744</v>
-      </c>
-      <c r="G128">
-        <v>76.73510427064451</v>
-      </c>
-      <c r="H128">
-        <v>1440.245517099614</v>
-      </c>
-      <c r="I128">
-        <v>-577.0243497392059</v>
-      </c>
-      <c r="J128">
-        <v>682.6866665888327</v>
-      </c>
-      <c r="K128">
-        <v>3992.768557167759</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>93</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129">
-        <v>173.142</v>
-      </c>
-      <c r="F129">
-        <v>61.15144574339703</v>
-      </c>
-      <c r="G129">
-        <v>87.78551169941215</v>
-      </c>
-      <c r="H129">
-        <v>1460.018843131281</v>
-      </c>
-      <c r="I129">
-        <v>-539.7831001073099</v>
-      </c>
-      <c r="J129">
-        <v>650.3450717321103</v>
-      </c>
-      <c r="K129">
-        <v>3993.795916698559</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>93</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130">
-        <v>174.142</v>
-      </c>
-      <c r="F130">
-        <v>59.08265920785651</v>
-      </c>
-      <c r="G130">
-        <v>98.83591912817982</v>
-      </c>
-      <c r="H130">
-        <v>1478.433055082938</v>
-      </c>
-      <c r="I130">
-        <v>-501.6248189645501</v>
-      </c>
-      <c r="J130">
-        <v>618.0034768753881</v>
-      </c>
-      <c r="K130">
-        <v>3975.907936388635</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>93</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131">
-        <v>175.142</v>
-      </c>
-      <c r="F131">
-        <v>57.21030305406912</v>
-      </c>
-      <c r="G131">
-        <v>109.8863265569475</v>
-      </c>
-      <c r="H131">
-        <v>1495.663033580396</v>
-      </c>
-      <c r="I131">
-        <v>-462.5269252536244</v>
-      </c>
-      <c r="J131">
-        <v>585.6618820186659</v>
-      </c>
-      <c r="K131">
-        <v>3939.10461623799</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>93</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132">
-        <v>176.142</v>
-      </c>
-      <c r="F132">
-        <v>55.50517316691028</v>
-      </c>
-      <c r="G132">
-        <v>120.9367339857151</v>
-      </c>
-      <c r="H132">
-        <v>1511.85193642894</v>
-      </c>
-      <c r="I132">
-        <v>-422.46628187947</v>
-      </c>
-      <c r="J132">
-        <v>553.3202871619435</v>
-      </c>
-      <c r="K132">
-        <v>3883.385956246621</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>93</v>
-      </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133">
-        <v>177.142</v>
-      </c>
-      <c r="F133">
-        <v>53.94379750514187</v>
-      </c>
-      <c r="G133">
-        <v>131.9871414144827</v>
-      </c>
-      <c r="H133">
-        <v>1527.118435656908</v>
-      </c>
-      <c r="I133">
-        <v>-381.4191820173432</v>
-      </c>
-      <c r="J133">
-        <v>520.9786923052212</v>
-      </c>
-      <c r="K133">
-        <v>3808.75195641453</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>93</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134">
-        <v>178.142</v>
-      </c>
-      <c r="F134">
-        <v>52.50706756473735</v>
-      </c>
-      <c r="G134">
-        <v>143.0375488432504</v>
-      </c>
-      <c r="H134">
-        <v>1541.562001674527</v>
-      </c>
-      <c r="I134">
-        <v>-339.3613350837512</v>
-      </c>
-      <c r="J134">
-        <v>488.637097448499</v>
-      </c>
-      <c r="K134">
-        <v>3715.202616741716</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>93</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135">
-        <v>179.142</v>
-      </c>
-      <c r="F135">
-        <v>51.17924877219415</v>
-      </c>
-      <c r="G135">
-        <v>154.0879562720181</v>
-      </c>
-      <c r="H135">
-        <v>1555.266834669993</v>
-      </c>
-      <c r="I135">
-        <v>-296.2678523619287</v>
-      </c>
-      <c r="J135">
-        <v>456.2955025917767</v>
-      </c>
-      <c r="K135">
-        <v>3602.73793722818</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>93</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136">
-        <v>180.142</v>
-      </c>
-      <c r="F136">
-        <v>49.94725183944436</v>
-      </c>
-      <c r="G136">
-        <v>165.1383637007857</v>
-      </c>
-      <c r="H136">
-        <v>1568.304838653364</v>
-      </c>
-      <c r="I136">
-        <v>-252.1132322733586</v>
-      </c>
-      <c r="J136">
-        <v>423.9539077350544</v>
-      </c>
-      <c r="K136">
-        <v>3471.35791787392</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>93</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137">
-        <v>181.142</v>
-      </c>
-      <c r="F137">
-        <v>48.80008752383909</v>
-      </c>
-      <c r="G137">
-        <v>176.1887711295534</v>
-      </c>
-      <c r="H137">
-        <v>1580.737904958816</v>
-      </c>
-      <c r="I137">
-        <v>-206.8713452866132</v>
-      </c>
-      <c r="J137">
-        <v>391.6123128783322</v>
-      </c>
-      <c r="K137">
-        <v>3321.062558678939</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>93</v>
-      </c>
-      <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138">
-        <v>182.142</v>
-      </c>
-      <c r="F138">
-        <v>47.72845265382415</v>
-      </c>
-      <c r="G138">
-        <v>187.239178558321</v>
-      </c>
-      <c r="H138">
-        <v>1592.619689100735</v>
-      </c>
-      <c r="I138">
-        <v>-160.5154184545921</v>
-      </c>
-      <c r="J138">
-        <v>359.2707180216099</v>
-      </c>
-      <c r="K138">
-        <v>3151.851859643233</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>93</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139">
-        <v>183.142</v>
-      </c>
-      <c r="F139">
-        <v>46.72441165803003</v>
-      </c>
-      <c r="G139">
-        <v>198.2895859870887</v>
-      </c>
-      <c r="H139">
-        <v>1603.997010164468</v>
-      </c>
-      <c r="I139">
-        <v>-113.0180195710028</v>
-      </c>
-      <c r="J139">
-        <v>326.9291231648877</v>
-      </c>
-      <c r="K139">
-        <v>2963.725820766806</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>93</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140">
-        <v>184.142</v>
-      </c>
-      <c r="F140">
-        <v>45.78114861988636</v>
-      </c>
-      <c r="G140">
-        <v>209.3399934158563</v>
-      </c>
-      <c r="H140">
-        <v>1614.910965046769</v>
-      </c>
-      <c r="I140">
-        <v>-64.35104093671087</v>
-      </c>
-      <c r="J140">
-        <v>294.5875283081654</v>
-      </c>
-      <c r="K140">
-        <v>2756.684442049656</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>93</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141">
-        <v>185.142</v>
-      </c>
-      <c r="F141">
-        <v>44.89277212268858</v>
-      </c>
-      <c r="G141">
-        <v>220.390400844624</v>
-      </c>
-      <c r="H141">
-        <v>1625.397824549399</v>
-      </c>
-      <c r="I141">
-        <v>-14.48568272634907</v>
-      </c>
-      <c r="J141">
-        <v>262.245933451443</v>
-      </c>
-      <c r="K141">
-        <v>2530.727723491783</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>93</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142">
-        <v>186.142</v>
-      </c>
-      <c r="F142">
-        <v>44.05416010222792</v>
-      </c>
-      <c r="G142">
-        <v>231.4408082733917</v>
-      </c>
-      <c r="H142">
-        <v>1635.489760651286</v>
-      </c>
-      <c r="I142">
-        <v>36.60756405465467</v>
-      </c>
-      <c r="J142">
-        <v>229.9043385947209</v>
-      </c>
-      <c r="K142">
-        <v>2285.855665093188</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>93</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143">
-        <v>187.142</v>
-      </c>
-      <c r="F143">
-        <v>43.26083536597584</v>
-      </c>
-      <c r="G143">
-        <v>242.4912157021593</v>
-      </c>
-      <c r="H143">
-        <v>1645.215441743953</v>
-      </c>
-      <c r="I143">
-        <v>88.95893503271542</v>
-      </c>
-      <c r="J143">
-        <v>197.5627437379985</v>
-      </c>
-      <c r="K143">
-        <v>2022.06826685387</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>93</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144">
-        <v>188.142</v>
-      </c>
-      <c r="F144">
-        <v>42.50886486614382</v>
-      </c>
-      <c r="G144">
-        <v>253.541623130927</v>
-      </c>
-      <c r="H144">
-        <v>1654.600523590794</v>
-      </c>
-      <c r="I144">
-        <v>142.5994103587332</v>
-      </c>
-      <c r="J144">
-        <v>165.2211488812763</v>
-      </c>
-      <c r="K144">
-        <v>1739.36552877383</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>93</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145">
-        <v>189.142</v>
-      </c>
-      <c r="F145">
-        <v>41.79477755103376</v>
-      </c>
-      <c r="G145">
-        <v>264.5920305596946</v>
-      </c>
-      <c r="H145">
-        <v>1663.668057191256</v>
-      </c>
-      <c r="I145">
-        <v>197.5607330413212</v>
-      </c>
-      <c r="J145">
-        <v>132.879554024554</v>
-      </c>
-      <c r="K145">
-        <v>1437.747450853065</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>93</v>
-      </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146">
-        <v>190.142</v>
-      </c>
-      <c r="F146">
-        <v>41.11549687765947</v>
-      </c>
-      <c r="G146">
-        <v>275.6424379884622</v>
-      </c>
-      <c r="H146">
-        <v>1672.438829875486</v>
-      </c>
-      <c r="I146">
-        <v>253.8754277314787</v>
-      </c>
-      <c r="J146">
-        <v>100.5379591678317</v>
-      </c>
-      <c r="K146">
-        <v>1117.214033091579</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>93</v>
-      </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147">
-        <v>191.142</v>
-      </c>
-      <c r="F147">
-        <v>40.46828499132019</v>
-      </c>
-      <c r="G147">
-        <v>286.6928454172299</v>
-      </c>
-      <c r="H147">
-        <v>1680.931652331293</v>
-      </c>
-      <c r="I147">
-        <v>311.5768199698114</v>
-      </c>
-      <c r="J147">
-        <v>68.19636431110953</v>
-      </c>
-      <c r="K147">
-        <v>777.7652754893702</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>93</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148">
-        <v>192.142</v>
-      </c>
-      <c r="F148">
-        <v>39.85069626174833</v>
-      </c>
-      <c r="G148">
-        <v>297.7432528459976</v>
-      </c>
-      <c r="H148">
-        <v>1689.163601532646</v>
-      </c>
-      <c r="I148">
-        <v>370.6990559077067</v>
-      </c>
-      <c r="J148">
-        <v>35.8547694543872</v>
-      </c>
-      <c r="K148">
-        <v>419.401178046438</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>93</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149">
-        <v>193.142</v>
-      </c>
-      <c r="F149">
-        <v>39.26053837761501</v>
-      </c>
-      <c r="G149">
-        <v>308.7936602747653</v>
-      </c>
-      <c r="H149">
-        <v>1697.15022745821</v>
-      </c>
-      <c r="I149">
-        <v>431.2771225141125</v>
-      </c>
-      <c r="J149">
-        <v>3.513174597664873</v>
-      </c>
-      <c r="K149">
-        <v>42.12174076278334</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>93</v>
-      </c>
-      <c r="B150" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150">
-        <v>194.142</v>
-      </c>
-      <c r="F150">
-        <v>38.69583958839591</v>
-      </c>
-      <c r="G150">
-        <v>319.8440677035329</v>
-      </c>
-      <c r="H150">
-        <v>1704.905729889625</v>
-      </c>
-      <c r="I150">
-        <v>493.3468682799012</v>
-      </c>
-      <c r="J150">
-        <v>-28.8284202590573</v>
-      </c>
-      <c r="K150">
-        <v>-354.0730363615929</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>93</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151">
-        <v>195.142</v>
-      </c>
-      <c r="F151">
-        <v>38.15482097797626</v>
-      </c>
-      <c r="G151">
-        <v>330.8944751323005</v>
-      </c>
-      <c r="H151">
-        <v>1712.44311034043</v>
-      </c>
-      <c r="I151">
-        <v>556.9450244320536</v>
-      </c>
-      <c r="J151">
-        <v>-61.17001511577963</v>
-      </c>
-      <c r="K151">
-        <v>-769.1831533266929</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>93</v>
-      </c>
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152">
-        <v>196.142</v>
-      </c>
-      <c r="F152">
-        <v>37.63587288158753</v>
-      </c>
-      <c r="G152">
-        <v>341.9448825610682</v>
-      </c>
-      <c r="H152">
-        <v>1719.774303198911</v>
-      </c>
-      <c r="I152">
-        <v>622.1092266702225</v>
-      </c>
-      <c r="J152">
-        <v>-93.51160997250196</v>
-      </c>
-      <c r="K152">
-        <v>-1203.208610132517</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>93</v>
-      </c>
-      <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153">
-        <v>197.142</v>
-      </c>
-      <c r="F153">
-        <v>37.13753473383885</v>
-      </c>
-      <c r="G153">
-        <v>352.9952899898358</v>
-      </c>
-      <c r="H153">
-        <v>1726.910289406781</v>
-      </c>
-      <c r="I153">
-        <v>688.8780374385394</v>
-      </c>
-      <c r="J153">
-        <v>-125.8532048292243</v>
-      </c>
-      <c r="K153">
-        <v>-1656.149406779062</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>93</v>
-      </c>
-      <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154">
-        <v>198.142</v>
-      </c>
-      <c r="F154">
-        <v>36.65847777320592</v>
-      </c>
-      <c r="G154">
-        <v>364.0456974186035</v>
-      </c>
-      <c r="H154">
-        <v>1733.861195392279</v>
-      </c>
-      <c r="I154">
-        <v>757.290968745846</v>
-      </c>
-      <c r="J154">
-        <v>-158.1947996859463</v>
-      </c>
-      <c r="K154">
-        <v>-2128.005543266328</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>93</v>
-      </c>
-      <c r="B155" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155">
-        <v>199.142</v>
-      </c>
-      <c r="F155">
-        <v>36.19749013657886</v>
-      </c>
-      <c r="G155">
-        <v>375.0961048473712</v>
-      </c>
-      <c r="H155">
-        <v>1740.636379494976</v>
-      </c>
-      <c r="I155">
-        <v>827.3885055478534</v>
-      </c>
-      <c r="J155">
-        <v>-190.5363945426686</v>
-      </c>
-      <c r="K155">
-        <v>-2618.777019594318</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>93</v>
-      </c>
-      <c r="B156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156">
-        <v>200.142</v>
-      </c>
-      <c r="F156">
-        <v>35.75346396316942</v>
-      </c>
-      <c r="G156">
-        <v>386.1465122761388</v>
-      </c>
-      <c r="H156">
-        <v>1747.244507733329</v>
-      </c>
-      <c r="I156">
-        <v>899.2121297050581</v>
-      </c>
-      <c r="J156">
-        <v>-222.877989399391</v>
-      </c>
-      <c r="K156">
-        <v>-3128.463835763032</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>93</v>
-      </c>
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157">
-        <v>201.142</v>
-      </c>
-      <c r="F157">
-        <v>35.32538419536212</v>
-      </c>
-      <c r="G157">
-        <v>397.1969197049064</v>
-      </c>
-      <c r="H157">
-        <v>1753.693620454107</v>
-      </c>
-      <c r="I157">
-        <v>972.8043445306114</v>
-      </c>
-      <c r="J157">
-        <v>-255.2195842561133</v>
-      </c>
-      <c r="K157">
-        <v>-3657.065991772469</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>93</v>
-      </c>
-      <c r="B158" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158">
-        <v>202.142</v>
-      </c>
-      <c r="F158">
-        <v>34.91231881882468</v>
-      </c>
-      <c r="G158">
-        <v>408.2473271336741</v>
-      </c>
-      <c r="H158">
-        <v>1759.991191149557</v>
-      </c>
-      <c r="I158">
-        <v>1048.208699942649</v>
-      </c>
-      <c r="J158">
-        <v>-287.5611791128356</v>
-      </c>
-      <c r="K158">
-        <v>-4204.583487622628</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>93</v>
-      </c>
-      <c r="B159" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159">
-        <v>203.142</v>
-      </c>
-      <c r="F159">
-        <v>34.51341032830282</v>
-      </c>
-      <c r="G159">
-        <v>419.2977345624417</v>
-      </c>
-      <c r="H159">
-        <v>1766.14417852149</v>
-      </c>
-      <c r="I159">
-        <v>1125.46981823597</v>
-      </c>
-      <c r="J159">
-        <v>-319.9027739695576</v>
-      </c>
-      <c r="K159">
-        <v>-4771.016323313506</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>93</v>
-      </c>
-      <c r="B160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160">
-        <v>204.142</v>
-      </c>
-      <c r="F160">
-        <v>34.12786824127431</v>
-      </c>
-      <c r="G160">
-        <v>430.3481419912094</v>
-      </c>
-      <c r="H160">
-        <v>1772.159072701859</v>
-      </c>
-      <c r="I160">
-        <v>1204.633420488341</v>
-      </c>
-      <c r="J160">
-        <v>-352.24436882628</v>
-      </c>
-      <c r="K160">
-        <v>-5356.364498845111</v>
+        <v>3980081.787420854</v>
       </c>
     </row>
   </sheetData>
